--- a/ML_CS7641/Optimization/FilpFlop-prob_size=100/final/result.xlsx
+++ b/ML_CS7641/Optimization/FilpFlop-prob_size=100/final/result.xlsx
@@ -451,12 +451,8 @@
           <t>RHC</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.05848169326782227</v>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -465,7 +461,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.923489570617676</v>
+        <v>2.290517330169678</v>
       </c>
       <c r="C3" t="n">
         <v>94</v>
@@ -478,10 +474,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.464786291122437</v>
+        <v>0.06961226463317871</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.86398673057556</v>
+        <v>21.40143656730652</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
